--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/2/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/2/LocalizationDef.xlsx
@@ -151,7 +151,7 @@
     <t>Eliminate the {TEAM_TAR.FactionDef.Demonym} Diplomat</t>
   </si>
   <si>
-    <t>Устраните дипломата, работающего на {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Устраните дипломата, работающего на {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>Assassinate_AggressiveNegotiations.objectiveList3.description</t>
@@ -208,7 +208,7 @@
     <t>We've been having troubles with {TEAM_TAR.FactionDef.ShortName} here in {TGT_SYSTEM.name} for months now, and our negotiations with them have been stalled by a stubborn {TEAM_TAR.FactionDef.Demonym} diplomat. If he were removed from the equation, through a random attack by "bandits" for instance, we might be able to make some headway.</t>
   </si>
   <si>
-    <t>{TEAM_TAR.FactionDef.ShortName} уже несколько месяцев доставляет нам проблемы здесь, в системе {TGT_SYSTEM.name}, и наши переговоры с ними застопорились из-за упрямого дипломата, представителя {TEAM_TAR.FactionDef.Demonym}. И, предположим, если бы он был, так сказать, «вынесен за скобки», может быть, посредством «случайного» рейда «неизвестных головорезов», мы могли бы добиться некоторого прогресса в дипломатии. Ну как, по рукам?</t>
+    <t>{TEAM_TAR.FactionDef.ShortName} уже несколько месяцев доставляет нам проблемы здесь, в системе {TGT_SYSTEM.name}, и наши переговоры с ними застопорились из-за упрямого дипломата, представителя {TEAM_TAR.FactionDef.Name}. И, предположим, если бы он был, так сказать, «вынесен за скобки», может быть, посредством «случайного» рейда «неизвестных головорезов», мы могли бы добиться некоторого прогресса в дипломатии. Ну как, по рукам?</t>
   </si>
   <si>
     <t>Assassinate_DeadOrAlive.contractName</t>
@@ -235,7 +235,7 @@
     <t>The war criminal you're hunting won't be alone. The company of {TEAM_TAR.FactionDef.Demonym} mercenaries that he's signed on with will attack you on sight.</t>
   </si>
   <si>
-    <t>Военный преступник, за которым вы охотитесь, будет не один. {TEAM_TAR.FactionDef.Demonym} выслали отряд наемников, с которыми он подписал контракт. Они начнут атаковать вас без предупреждения.</t>
+    <t>Военный преступник, за которым вы охотитесь, будет не один. {TEAM_TAR.FactionDef.Name} выслали отряд наемников, с которыми он подписал контракт. Они начнут атаковать вас без предупреждения.</t>
   </si>
   <si>
     <t>Assassinate_DeadOrAlive.dialogueList0.dialogueContent2.words</t>
@@ -307,7 +307,7 @@
     <t>Destroy Supporting {TEAM_TAR.FactionDef.Demonym} Forces</t>
   </si>
   <si>
-    <t>Уничтожьте силы, поддерживающие {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте силы, поддерживающие {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>Assassinate_DeadOrAlive.objectiveList1.description</t>
@@ -361,7 +361,7 @@
     <t>A wanted war criminal has been spotted on {TGT_SYSTEM.name}. Unfortunately, he appears to have integrated himself into a {TEAM_TAR.FactionDef.Demonym}-aligned mercenary company. We need you to track him down and destroy his 'Mech. If he ejects, we'll take him into custody to be tried before a {TEAM_EMP.FactionDef.Demonym} court. If not, no harm done - you'll be paid the same either way.</t>
   </si>
   <si>
-    <t>Разыскиваемый военный преступник обнаружен на планете {TGT_SYSTEM.name}. К сожалению, он, похоже, внедрился к наёмникам, работающим на {TEAM_TAR.FactionDef.Demonym}. Нам нужно, чтобы вы выследили его и уничтожили его мех. Если он катапультируется, мы возьмем его под стражу, чтобы он предстал перед судом {TEAM_EMP.FactionDef.Demonym}. Если не выживет... ну... оплату вы так или иначе получите.</t>
+    <t>Разыскиваемый военный преступник обнаружен на планете {TGT_SYSTEM.name}. К сожалению, он, похоже, внедрился к наёмникам, работающим на {TEAM_TAR.FactionDef.Name}. Нам нужно, чтобы вы выследили его и уничтожили его мех. Если он катапультируется, мы возьмем его под стражу, чтобы он предстал перед судом {TEAM_EMP.FactionDef.Name}. Если не выживет... ну... оплату вы так или иначе получите.</t>
   </si>
   <si>
     <t>Assassinate_FrontierJustice.contractName</t>
@@ -466,7 +466,7 @@
     <t>Eliminate {TEAM_TAR.FactionDef.Demonym} ambush team</t>
   </si>
   <si>
-    <t>Уничтожьте команду засады {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте команду засады {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>Assassinate_FrontierJustice.objectiveList1.title</t>
@@ -514,7 +514,7 @@
     <t>We are offering a sizeable bounty for the head of a local outlaw. The target is a rogue {TEAM_TAR.FactionDef.Demonym} MechWarrior who has attacked {TEAM_EMP.FactionDef.Demonym} personnel and facilities in this system. We need a mercenary company to find her and take her down before she takes out her aggressions on any more of our settlements.</t>
   </si>
   <si>
-    <t>Мы предлагаем крупную награду за главу местных бандитов. Целью является мятежный мехвоин из {TEAM_TAR.FactionDef.Demonym}, который атаковал персонал и здания, принадлежащие {TEAM_EMP.FactionDef.Demonym} в этой системе. Нам нужен отряд наемников, чтобы найти его и уничтожить, прежде чем он перенесёт свою агрессию на наши поселения.</t>
+    <t>Мы предлагаем крупную награду за главу местных бандитов. Целью является мятежный мехвоин из {TEAM_TAR.FactionDef.Name}, который атаковал персонал и здания, принадлежащие {TEAM_EMP.FactionDef.Name} в этой системе. Нам нужен отряд наемников, чтобы найти его и уничтожить, прежде чем он перенесёт свою агрессию на наши поселения.</t>
   </si>
   <si>
     <t>Assassinate_InsurrectionInterception.contractName</t>
@@ -559,7 +559,7 @@
     <t>Mission accomplished. The {TEAM_TAR.FactionDef.Demonym} propagandist is dead.</t>
   </si>
   <si>
-    <t>Миссия выполнена. Пропагандист {TEAM_TAR.FactionDef.Demonym} мертв.</t>
+    <t>Миссия выполнена. Пропагандист {TEAM_TAR.FactionDef.Name} мертв.</t>
   </si>
   <si>
     <t>Assassinate_InsurrectionInterception.dialogueList2.dialogueContent0.words</t>
@@ -622,7 +622,7 @@
     <t>Destroy {TEAM_TAR.FactionDef.Demonym} Propagandist</t>
   </si>
   <si>
-    <t>Уничтожьте пропагандиста {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте пропагандиста {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>Assassinate_InsurrectionInterception.objectiveList3.description</t>
@@ -649,7 +649,7 @@
     <t>For months, we've had trouble with people here in {TGT_SYSTEM.name} being riled up by talk of insurrection, rebellion, independence. Based on top {TEAM_EMP.FactionDef.Demonym} analysts' reports, we believe there's a {TEAM_TAR.FactionDef.Demonym} propagandist in the area, stirring up discontent. We've set up a security net to capture her. But we can't cover every possible exit from our net and could use an extra Lance of 'Mechs. If she tries to slip through your assigned territory, turn her unit to slag.</t>
   </si>
   <si>
-    <t>В течение нескольких месяцев у нас были проблемы с людьми здесь, на {TGT_SYSTEM.name}, которых раздражали разговоры о мятеже, восстании и независимости. Основываясь на отчётах ведущих аналитиков {TEAM_EMP.FactionDef.Demonym}, мы полагаем, что в этом районе есть пропагандист {TEAM_TAR.FactionDef.Demonym}, вызывающий недовольство. Мы создали защитный периметр, чтобы захватить ее. Но мы не можем покрыть все возможные выходы и могли бы использовать дополнительный отряд мехов. Если она попытается проскользнуть через назначенную вам территорию, превратите ее отряд в шлак.</t>
+    <t>В течение нескольких месяцев у нас были проблемы с людьми здесь, на {TGT_SYSTEM.name}, которых раздражали разговоры о мятеже, восстании и независимости. Основываясь на отчётах ведущих аналитиков {TEAM_EMP.FactionDef.Name}, мы полагаем, что в этом районе есть пропагандист {TEAM_TAR.FactionDef.Name}, вызывающий недовольство. Мы создали защитный периметр, чтобы захватить ее. Но мы не можем покрыть все возможные выходы и могли бы использовать дополнительный отряд мехов. Если она попытается проскользнуть через назначенную вам территорию, превратите ее отряд в шлак.</t>
   </si>
   <si>
     <t>Assassinate_KeyPersonnel.contractName</t>
@@ -676,7 +676,7 @@
     <t>We're seeing a lot of {TEAM_TAR.FactionDef.Demonym} activity in the vicinity of the target.</t>
   </si>
   <si>
-    <t>Мы наблюдаем много активности от {TEAM_TAR.FactionDef.Demonym} в непосредственной близости от цели.</t>
+    <t>Мы наблюдаем много активности от {TEAM_TAR.FactionDef.Name} в непосредственной близости от цели.</t>
   </si>
   <si>
     <t>Assassinate_KeyPersonnel.dialogueList0.dialogueContent2.words</t>
@@ -781,7 +781,7 @@
     <t>We have an opportunity to eliminate a key figure in the {TEAM_TAR.FactionDef.Demonym} hierarchy in this system, which will leave their organization in chaos and ensure safety for {TEAM_EMP.FactionDef.Demonym} operations. The target will be relatively unguarded and vulnerable, and we'd like you to strike in this window of opportunity.</t>
   </si>
   <si>
-    <t>У нас есть возможность устранить ключевую фигуру из {TEAM_TAR.FactionDef.Demonym} в этой системе, что ввергнет их на время в хаос и обеспечит безопасность операций {TEAM_EMP.FactionDef.Demonym}. Цель будет относительно беззащитной и уязвимой, но не долго и мы хотели бы, чтобы вы нанесли быстрый удар в это время.</t>
+    <t>У нас есть возможность устранить ключевую фигуру из {TEAM_TAR.FactionDef.Name} в этой системе, что ввергнет их на время в хаос и обеспечит безопасность операций {TEAM_EMP.FactionDef.Name}. Цель будет относительно беззащитной и уязвимой, но не долго и мы хотели бы, чтобы вы нанесли быстрый удар в это время.</t>
   </si>
   <si>
     <t>Assassinate_MiddleManagement.contractName</t>
@@ -802,7 +802,7 @@
     <t>We're seeing a lot of {TEAM_TAR.FactionDef.Demonym} activity nearby. That's probably our target.</t>
   </si>
   <si>
-    <t>Мы наблюдаем много активности от {TEAM_TAR.FactionDef.Demonym} поблизости. Вероятно, это наша цель.</t>
+    <t>Мы наблюдаем много активности от {TEAM_TAR.FactionDef.Name} поблизости. Вероятно, это наша цель.</t>
   </si>
   <si>
     <t>Assassinate_MiddleManagement.dialogueList0.dialogueContent2.words</t>
@@ -892,7 +892,7 @@
     <t>Our intelligence operatives believe that a {TEAM_TAR.FactionDef.Demonym} leader is present and vulnerable on the surface of {TGT_SYSTEM.name}. Eliminating them will leave their organization in shambles and clear the field for {TEAM_EMP.FactionDef.Demonym} operations. The target will be relatively unguarded, and we'd like you to strike during this window of opportunity.</t>
   </si>
   <si>
-    <t>Наши разведчики полагают, что лидер {TEAM_TAR.FactionDef.Demonym} присутствует на поверхности {TGT_SYSTEM.name} и уязвим. Его устранение приведёт к беспорядку в их организации и расчистит поле для дальнейших операций {TEAM_EMP.FactionDef.Demonym}. Цель будет относительно беззащитной и мы хотели бы, чтобы вы нанесли удар, пока есть возможность.</t>
+    <t>Наши разведчики полагают, что лидер {TEAM_TAR.FactionDef.Name} присутствует на поверхности {TGT_SYSTEM.name} и уязвим. Его устранение приведёт к беспорядку в их организации и расчистит поле для дальнейших операций {TEAM_EMP.FactionDef.Name}. Цель будет относительно беззащитной и мы хотели бы, чтобы вы нанесли удар, пока есть возможность.</t>
   </si>
   <si>
     <t>Assassinate_RecruitmentDrive.contractName</t>
@@ -1066,7 +1066,7 @@
     <t>Our spies report that a veteran {TEAM_TAR.FactionDef.Demonym} MechWarrior from the Succession Wars retired to this system, and {TEAM_EMP.FactionDef.ShortName} would very much like to keep him retired. Permanently if possible. We've been monitoring a DropShip in orbit around the planet, and believe that they're preparing for a pickup. We need you to drop and intercept this MechWarrior before he can be reactivated. He's likely in a fairly heavy 'Mech, so be careful when you engage him.</t>
   </si>
   <si>
-    <t>Наши шпионы сообщают, что ветеран {TEAM_TAR.FactionDef.Demonym} времён Войн за Наследие ушёл на пенсию и поселился в этой системе. Люди из {TEAM_EMP.FactionDef.ShortName} очень хотели бы, чтобы он и дальше оставался в отставке. И если возможно - навсегда. Мы наблюдаем за десантным кораблем на орбите вокруг планеты и полагаем, что они готовятся подобрать кого-то. Нам нужно, чтобы вы высадились и перехватили этого мехвоина, прежде чем он встретится со своими. Скорее всего, он пилотирует довольно тяжелый мех, поэтому будьте осторожны.</t>
+    <t>Наши шпионы сообщают, что ветеран {TEAM_TAR.FactionDef.Name} времён Войн за Наследие ушёл на пенсию и поселился в этой системе. Люди из {TEAM_EMP.FactionDef.ShortName} очень хотели бы, чтобы он и дальше оставался в отставке. И если возможно - навсегда. Мы наблюдаем за десантным кораблем на орбите вокруг планеты и полагаем, что они готовятся подобрать кого-то. Нам нужно, чтобы вы высадились и перехватили этого мехвоина, прежде чем он встретится со своими. Скорее всего, он пилотирует довольно тяжелый мех, поэтому будьте осторожны.</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C163"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1426,7 +1426,8 @@
     <col min="1" max="1" width="56.7109375" customWidth="1" style="3"/>
     <col min="2" max="2" width="94.140625" customWidth="1" style="2"/>
     <col min="3" max="3" width="64.28515625" customWidth="1" style="3"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="3"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1590,7 +1591,7 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1810,7 +1811,7 @@
       <c r="B35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1920,7 +1921,7 @@
       <c r="B45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2074,7 +2075,7 @@
       <c r="B59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2228,7 +2229,7 @@
       <c r="B73" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2338,7 +2339,7 @@
       <c r="B83" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>201</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/2/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/2/LocalizationDef.xlsx
@@ -1100,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1112,6 +1112,12 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,17 +1423,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56.7109375" customWidth="1" style="3"/>
     <col min="2" max="2" width="94.140625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1" style="3"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="3"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="3"/>
+    <col min="3" max="3" width="77.42578125" customWidth="1" style="3"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="3"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1591,7 +1597,7 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1808,7 +1814,7 @@
       <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
